--- a/lib/seeds/FinanceMaster.xlsx
+++ b/lib/seeds/FinanceMaster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AircraftLeasing" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +270,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -304,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,10 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,24 +513,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,7 +564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -583,7 +581,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -600,7 +598,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +615,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -634,7 +632,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -651,7 +649,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -668,7 +666,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -685,7 +683,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -702,7 +700,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -719,7 +717,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -742,22 +740,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -803,7 +801,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -826,7 +824,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -849,7 +847,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -872,7 +870,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -895,7 +893,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -918,7 +916,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -941,7 +939,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -964,7 +962,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -993,21 +991,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>

--- a/lib/seeds/FinanceMaster.xlsx
+++ b/lib/seeds/FinanceMaster.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="21012" windowHeight="8148" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AircraftLeasing" sheetId="1" r:id="rId1"/>
     <sheet name="Bank" sheetId="2" r:id="rId2"/>
     <sheet name="CreditBook" sheetId="4" r:id="rId3"/>
+    <sheet name="LeaseBook" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -178,13 +179,19 @@
   </si>
   <si>
     <t>turn</t>
+  </si>
+  <si>
+    <t>leaser_id</t>
+  </si>
+  <si>
+    <t>plane_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +277,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -304,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,24 +522,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -564,7 +573,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -581,7 +590,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -598,7 +607,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,7 +624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -632,7 +641,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -649,7 +658,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -666,7 +675,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -683,7 +692,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -700,7 +709,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -717,7 +726,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -740,22 +749,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -778,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -801,7 +813,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -824,7 +836,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -847,7 +859,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -870,7 +882,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -893,7 +905,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -916,7 +928,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -939,7 +951,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -962,7 +974,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -991,21 +1003,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1026,6 +1038,32 @@
       </c>
       <c r="G1" t="s">
         <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/lib/seeds/FinanceMaster.xlsx
+++ b/lib/seeds/FinanceMaster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="21012" windowHeight="8148" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="192" windowWidth="21012" windowHeight="8088" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AircraftLeasing" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="CreditBook" sheetId="4" r:id="rId3"/>
     <sheet name="LeaseBook" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>lease_time</t>
   </si>
   <si>
-    <t>month_rate</t>
-  </si>
-  <si>
     <t>Anawar Leasing</t>
   </si>
   <si>
@@ -103,33 +100,6 @@
     <t>Letrovians Paris</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>max_limit_loan</t>
   </si>
   <si>
@@ -145,30 +115,6 @@
     <t>interest_rate_loc</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -185,13 +131,46 @@
   </si>
   <si>
     <t>plane_id</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Adjusted Price</t>
+  </si>
+  <si>
+    <t>Payment 1st Month</t>
+  </si>
+  <si>
+    <t>Payment Remaining</t>
+  </si>
+  <si>
+    <t>Payment Final (Optional)</t>
+  </si>
+  <si>
+    <t>Total Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _T_L_-;\-* #,##0.00\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +196,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
+    <cellStyle name="Yüzde" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,479 +510,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>96</v>
       </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G2" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2*C2</f>
+        <v>64000000</v>
+      </c>
+      <c r="I2" s="2">
+        <f>50000+(H2*(1+E2/12*D2)*0.7/D2)</f>
+        <v>628666.66666666663</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2*(1+E2/12*D2)*0.7/D2</f>
+        <v>578666.66666666663</v>
+      </c>
+      <c r="K2" s="4">
+        <f>H2*(1+E2/12*D2)*0.3</f>
+        <v>23808000</v>
+      </c>
+      <c r="L2" s="4">
+        <f>I2+J2*(D2-1)+K2</f>
+        <v>79410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3*C3</f>
+        <v>60000000</v>
+      </c>
+      <c r="I3" s="2">
+        <f>50000+(H3*(1+E3/12*D3)*0.7/D3)</f>
+        <v>731333.33333333337</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3*(1+E3/12*D3)*0.7/D3</f>
+        <v>681333.33333333337</v>
+      </c>
+      <c r="K3" s="4">
+        <f>H3*(1+E3/12*D3)*0.3</f>
+        <v>21024000</v>
+      </c>
+      <c r="L3" s="4">
+        <f>I3+J3*(D3-1)+K3</f>
+        <v>70130000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>84</v>
       </c>
-      <c r="E4">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H4" s="2">
+        <f>G4*C4</f>
+        <v>64000000</v>
+      </c>
+      <c r="I4" s="2">
+        <f>50000+(H4*(1+E4/12*D4)*0.7/D4)</f>
+        <v>691600</v>
+      </c>
+      <c r="J4" s="2">
+        <f>H4*(1+E4/12*D4)*0.7/D4</f>
+        <v>641600</v>
+      </c>
+      <c r="K4" s="4">
+        <f>H4*(1+E4/12*D4)*0.3</f>
+        <v>23097600</v>
+      </c>
+      <c r="L4" s="4">
+        <f>I4+J4*(D4-1)+K4</f>
+        <v>77042000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.65</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>96</v>
       </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H5" s="2">
+        <f>G5*C5</f>
+        <v>52000000</v>
+      </c>
+      <c r="I5" s="2">
+        <f>50000+(H5*(1+E5/12*D5)*0.7/D5)</f>
+        <v>520166.66666666669</v>
+      </c>
+      <c r="J5" s="2">
+        <f>H5*(1+E5/12*D5)*0.7/D5</f>
+        <v>470166.66666666669</v>
+      </c>
+      <c r="K5" s="4">
+        <f>H5*(1+E5/12*D5)*0.3</f>
+        <v>19344000</v>
+      </c>
+      <c r="L5" s="4">
+        <f>I5+J5*(D5-1)+K5</f>
+        <v>64530000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>72</v>
       </c>
-      <c r="E6">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6*C6</f>
+        <v>56000000</v>
+      </c>
+      <c r="I6" s="2">
+        <f>50000+(H6*(1+E6/12*D6)*0.7/D6)</f>
+        <v>689177.77777777764</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6*(1+E6/12*D6)*0.7/D6</f>
+        <v>639177.77777777764</v>
+      </c>
+      <c r="K6" s="4">
+        <f>H6*(1+E6/12*D6)*0.3</f>
+        <v>19723199.999999996</v>
+      </c>
+      <c r="L6" s="4">
+        <f>I6+J6*(D6-1)+K6</f>
+        <v>65793999.999999985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.65</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>84</v>
       </c>
-      <c r="E7">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H7" s="2">
+        <f>G7*C7</f>
+        <v>52000000</v>
+      </c>
+      <c r="I7" s="2">
+        <f>50000+(H7*(1+E7/12*D7)*0.7/D7)</f>
+        <v>568266.66666666674</v>
+      </c>
+      <c r="J7" s="2">
+        <f>H7*(1+E7/12*D7)*0.7/D7</f>
+        <v>518266.66666666669</v>
+      </c>
+      <c r="K7" s="4">
+        <f>H7*(1+E7/12*D7)*0.3</f>
+        <v>18657600</v>
+      </c>
+      <c r="L7" s="4">
+        <f>I7+J7*(D7-1)+K7</f>
+        <v>62242000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>96</v>
       </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*C8</f>
+        <v>48000000</v>
+      </c>
+      <c r="I8" s="2">
+        <f>50000+(H8*(1+E8/12*D8)*0.7/D8)</f>
+        <v>481200</v>
+      </c>
+      <c r="J8" s="2">
+        <f>H8*(1+E8/12*D8)*0.7/D8</f>
+        <v>431200</v>
+      </c>
+      <c r="K8" s="4">
+        <f>H8*(1+E8/12*D8)*0.3</f>
+        <v>17740800</v>
+      </c>
+      <c r="L8" s="4">
+        <f>I8+J8*(D8-1)+K8</f>
+        <v>59186000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>72</v>
       </c>
-      <c r="E9">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H9" s="2">
+        <f>G9*C9</f>
+        <v>44000000</v>
+      </c>
+      <c r="I9" s="2">
+        <f>50000+(H9*(1+E9/12*D9)*0.7/D9)</f>
+        <v>554777.77777777775</v>
+      </c>
+      <c r="J9" s="2">
+        <f>H9*(1+E9/12*D9)*0.7/D9</f>
+        <v>504777.77777777775</v>
+      </c>
+      <c r="K9" s="4">
+        <f>H9*(1+E9/12*D9)*0.3</f>
+        <v>15576000</v>
+      </c>
+      <c r="L9" s="4">
+        <f>I9+J9*(D9-1)+K9</f>
+        <v>51970000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>84</v>
       </c>
-      <c r="E10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H10" s="2">
+        <f>G10*C10</f>
+        <v>48000000</v>
+      </c>
+      <c r="I10" s="2">
+        <f>50000+(H10*(1+E10/12*D10)*0.7/D10)</f>
+        <v>534000</v>
+      </c>
+      <c r="J10" s="2">
+        <f>H10*(1+E10/12*D10)*0.7/D10</f>
+        <v>484000</v>
+      </c>
+      <c r="K10" s="4">
+        <f>H10*(1+E10/12*D10)*0.3</f>
+        <v>17424000</v>
+      </c>
+      <c r="L10" s="4">
+        <f>I10+J10*(D10-1)+K10</f>
+        <v>58130000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>72</v>
       </c>
-      <c r="E11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H11" s="2">
+        <f>G11*C11</f>
+        <v>24000000</v>
+      </c>
+      <c r="I11" s="2">
+        <f>50000+(H11*(1+E11/12*D11)*0.7/D11)</f>
+        <v>353333.33333333331</v>
+      </c>
+      <c r="J11" s="2">
+        <f>H11*(1+E11/12*D11)*0.7/D11</f>
+        <v>303333.33333333331</v>
+      </c>
+      <c r="K11" s="4">
+        <f>H11*(1+E11/12*D11)*0.3</f>
+        <v>9360000</v>
+      </c>
+      <c r="L11" s="4">
+        <f>I11+J11*(D11-1)+K11</f>
+        <v>31249999.999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>72</v>
       </c>
-      <c r="E12">
-        <v>1.4999999999999999E-2</v>
+      <c r="E12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="2">
+        <v>80000000</v>
+      </c>
+      <c r="H12" s="2">
+        <f>G12*C12</f>
+        <v>16000000</v>
+      </c>
+      <c r="I12" s="2">
+        <f>50000+(H12*(1+E12/12*D12)*0.7/D12)</f>
+        <v>252222.22222222222</v>
+      </c>
+      <c r="J12" s="2">
+        <f>H12*(1+E12/12*D12)*0.7/D12</f>
+        <v>202222.22222222222</v>
+      </c>
+      <c r="K12" s="4">
+        <f>H12*(1+E12/12*D12)*0.3</f>
+        <v>6240000</v>
+      </c>
+      <c r="L12" s="4">
+        <f>I12+J12*(D12-1)+K12</f>
+        <v>20850000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="2">
         <v>10000000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>72</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D3" s="2">
         <v>8000000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>0.11040000000000001</v>
+      </c>
+      <c r="G3" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
         <v>9000000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="2">
+        <v>0.1152</v>
+      </c>
+      <c r="G4" s="2">
         <v>900000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="2">
         <v>84000000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="G5" s="2">
         <v>8400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D6" s="2">
         <v>96000000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>108</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="G6" s="2">
         <v>9600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D7" s="2">
         <v>100000000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>120</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2">
+        <v>0.1008</v>
+      </c>
+      <c r="G7" s="2">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D8" s="2">
         <v>600000000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>192</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="2">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="G8" s="2">
         <v>60000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="2">
         <v>800000000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>240</v>
       </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="2">
+        <v>6.720000000000001E-2</v>
+      </c>
+      <c r="G9" s="2">
         <v>80000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="2">
         <v>700000000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>216</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="2">
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="G10" s="2">
         <v>70000000</v>
       </c>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,25 +1293,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1057,13 +1331,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
